--- a/Pop_Fun_Times.xlsx
+++ b/Pop_Fun_Times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emyli\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emyli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2CF86-9355-4BB9-915E-AEEAD3732148}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C5049-5EBD-4AF6-8753-6B99CB23EC67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8772" yWindow="1668" windowWidth="13632" windowHeight="9612" xr2:uid="{A5B3DD1E-675D-4B3E-8B74-B8AADD50D401}"/>
+    <workbookView xWindow="72" yWindow="6336" windowWidth="11172" windowHeight="9372" xr2:uid="{A5B3DD1E-675D-4B3E-8B74-B8AADD50D401}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
   <si>
     <t>NS</t>
   </si>
@@ -85,16 +85,55 @@
   </si>
   <si>
     <t>8--12</t>
+  </si>
+  <si>
+    <t>population matrix</t>
+  </si>
+  <si>
+    <t>cmd line time ms</t>
+  </si>
+  <si>
+    <t>1 thread</t>
+  </si>
+  <si>
+    <t>2 thread</t>
+  </si>
+  <si>
+    <t>4 thread</t>
+  </si>
+  <si>
+    <t>3 thread</t>
+  </si>
+  <si>
+    <t>time ms IDE</t>
+  </si>
+  <si>
+    <t>fitness vector</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -437,15 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76937AD6-1C9F-4AAE-B54F-4F9F462EB2B6}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="I30" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +505,20 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -481,8 +537,26 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -492,8 +566,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -515,8 +647,26 @@
       <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -529,8 +679,26 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -540,16 +708,52 @@
       <c r="G8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -568,8 +772,26 @@
       <c r="F10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <v>300</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -579,8 +801,66 @@
       <c r="F11">
         <v>80000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <v>300</v>
+      </c>
+      <c r="N11">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>10000</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+      <c r="N12">
+        <v>261</v>
+      </c>
+      <c r="O12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>10000</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>261</v>
+      </c>
+      <c r="O13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -605,8 +885,26 @@
       <c r="H14">
         <v>219</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>10000</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14">
+        <v>448</v>
+      </c>
+      <c r="O14">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -622,8 +920,26 @@
       <c r="H15">
         <v>218</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>10000</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15">
+        <v>390</v>
+      </c>
+      <c r="O15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -633,8 +949,26 @@
       <c r="H16">
         <v>238</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>10000</v>
+      </c>
+      <c r="M16">
+        <v>1000</v>
+      </c>
+      <c r="N16">
+        <v>389</v>
+      </c>
+      <c r="O16">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>246</v>
       </c>
@@ -642,7 +976,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>100000</v>
       </c>
@@ -652,8 +986,52 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -666,8 +1044,29 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>500</v>
+      </c>
+      <c r="M20">
+        <v>300</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -677,8 +1076,29 @@
       <c r="D21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="M21">
+        <v>300</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -688,8 +1108,29 @@
       <c r="D22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
+      <c r="M22">
+        <v>300</v>
+      </c>
+      <c r="N22">
+        <v>133</v>
+      </c>
+      <c r="O22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -699,8 +1140,29 @@
       <c r="D23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>500</v>
+      </c>
+      <c r="M23">
+        <v>300</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -710,8 +1172,308 @@
       <c r="D24">
         <v>16</v>
       </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>500</v>
+      </c>
+      <c r="M24">
+        <v>300</v>
+      </c>
+      <c r="N24">
+        <v>36</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>10000</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>1014</v>
+      </c>
+      <c r="O25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>10000</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26">
+        <v>498</v>
+      </c>
+      <c r="O26">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>10000</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27">
+        <v>324</v>
+      </c>
+      <c r="O27">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>10000</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>5662</v>
+      </c>
+      <c r="O28">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>10000</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>2869</v>
+      </c>
+      <c r="O29">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>10000</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30">
+        <v>1420</v>
+      </c>
+      <c r="O30">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>500</v>
+      </c>
+      <c r="M33">
+        <v>300</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34">
+        <v>500</v>
+      </c>
+      <c r="M34">
+        <v>300</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>500</v>
+      </c>
+      <c r="M35">
+        <v>300</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <v>10000</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>104</v>
+      </c>
+      <c r="O36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>10000</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>52</v>
+      </c>
+      <c r="O37">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>10000</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>26</v>
+      </c>
+      <c r="O38">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pop_Fun_Times.xlsx
+++ b/Pop_Fun_Times.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emyli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C5049-5EBD-4AF6-8753-6B99CB23EC67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0DAA3-4EA6-4D67-AD87-C9FBD951F71D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="6336" windowWidth="11172" windowHeight="9372" xr2:uid="{A5B3DD1E-675D-4B3E-8B74-B8AADD50D401}"/>
+    <workbookView xWindow="6048" yWindow="1308" windowWidth="16440" windowHeight="9372" xr2:uid="{A5B3DD1E-675D-4B3E-8B74-B8AADD50D401}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>NS</t>
   </si>
@@ -119,12 +120,33 @@
   <si>
     <t>function</t>
   </si>
+  <si>
+    <t>500x30</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>10000x1000</t>
+  </si>
+  <si>
+    <t>500x300</t>
+  </si>
+  <si>
+    <t>1000x500</t>
+  </si>
+  <si>
+    <t>1000x1000</t>
+  </si>
+  <si>
+    <t>10000x500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +156,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,9 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,6 +208,2563 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population Matrix </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FillIn method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13194160698603846"/>
+          <c:y val="0.22698336565022936"/>
+          <c:w val="0.85214077358794826"/>
+          <c:h val="0.50372661423390486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500x30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30483333299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.493666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.163166667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99283333299999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99883333299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8509-4656-BBD0-5F4648CAC309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500x300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.169333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8308333330000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5715000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8509-4656-BBD0-5F4648CAC309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000x500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.30983333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.058833330000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.28616667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.107166670000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8509-4656-BBD0-5F4648CAC309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.942666670000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.76316667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.987833330000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.792666670000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.208833329999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8509-4656-BBD0-5F4648CAC309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="483560064"/>
+        <c:axId val="483556784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483560064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483556784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483556784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483560064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Population Matrix </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>FillIn method</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000x500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.52966670000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.6743333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192.73833329999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.75550000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8615-4834-8D17-3534E2E3E493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>208.77916669999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.94916670000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.26883330000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.5756667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>378.31066670000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8615-4834-8D17-3534E2E3E493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="490771912"/>
+        <c:axId val="485607160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="490771912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thread Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485607160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485607160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490771912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>349896</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>450977</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15548</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3DEEC9-25C5-4A74-A93C-14264AD5F8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>58315</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>178836</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802ACD55-A74D-4980-864C-A4E2CA31DFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,20 +3064,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76937AD6-1C9F-4AAE-B54F-4F9F462EB2B6}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I30" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="98" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
     <col min="14" max="14" width="12.21875" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +3106,32 @@
       <c r="O1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,8 +3168,32 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.30483333299999998</v>
+      </c>
+      <c r="T2">
+        <v>3.169333333</v>
+      </c>
+      <c r="U2">
+        <v>11.30983333</v>
+      </c>
+      <c r="V2">
+        <v>26.942666670000001</v>
+      </c>
+      <c r="W2">
+        <v>129.999</v>
+      </c>
+      <c r="X2">
+        <v>208.77916669999999</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -584,8 +3221,32 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0.493666667</v>
+      </c>
+      <c r="T3">
+        <v>3.8308333330000002</v>
+      </c>
+      <c r="U3">
+        <v>12.058833330000001</v>
+      </c>
+      <c r="V3">
+        <v>26.76316667</v>
+      </c>
+      <c r="W3">
+        <v>112.52966670000001</v>
+      </c>
+      <c r="X3">
+        <v>204.94916670000001</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>21</v>
       </c>
@@ -604,8 +3265,32 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.163166667</v>
+      </c>
+      <c r="T4">
+        <v>6.9740000000000002</v>
+      </c>
+      <c r="U4">
+        <v>22.28616667</v>
+      </c>
+      <c r="V4">
+        <v>36.987833330000001</v>
+      </c>
+      <c r="W4">
+        <v>219.6743333</v>
+      </c>
+      <c r="X4">
+        <v>210.26883330000001</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>23</v>
       </c>
@@ -624,8 +3309,32 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>0.99283333299999998</v>
+      </c>
+      <c r="T5">
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="U5">
+        <v>19.984999999999999</v>
+      </c>
+      <c r="V5">
+        <v>41.792666670000003</v>
+      </c>
+      <c r="W5">
+        <v>192.73833329999999</v>
+      </c>
+      <c r="X5">
+        <v>389.5756667</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -665,8 +3374,32 @@
       <c r="O6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>0.99883333299999999</v>
+      </c>
+      <c r="T6">
+        <v>5.5715000000000003</v>
+      </c>
+      <c r="U6">
+        <v>19.107166670000002</v>
+      </c>
+      <c r="V6">
+        <v>41.208833329999997</v>
+      </c>
+      <c r="W6">
+        <v>189.75550000000001</v>
+      </c>
+      <c r="X6">
+        <v>378.31066670000001</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -698,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -727,7 +3460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
@@ -753,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -790,8 +3523,23 @@
       <c r="O10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -819,8 +3567,24 @@
       <c r="O11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1.024</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>3</v>
       </c>
@@ -839,8 +3603,23 @@
       <c r="O12">
         <v>202</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="U12">
+        <v>0.97</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>20</v>
       </c>
@@ -859,8 +3638,23 @@
       <c r="O13">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="T13">
+        <v>0.996</v>
+      </c>
+      <c r="U13">
+        <v>0.998</v>
+      </c>
+      <c r="V13">
+        <v>0.997</v>
+      </c>
+      <c r="W13">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -903,8 +3697,23 @@
       <c r="O14">
         <v>442</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>0.995</v>
+      </c>
+      <c r="T14">
+        <v>0.997</v>
+      </c>
+      <c r="U14">
+        <v>1.992</v>
+      </c>
+      <c r="V14">
+        <v>0.997</v>
+      </c>
+      <c r="W14">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -938,8 +3747,23 @@
       <c r="O15">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.998</v>
+      </c>
+      <c r="V15">
+        <v>0.97</v>
+      </c>
+      <c r="W15">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -967,16 +3791,51 @@
       <c r="O16">
         <v>394</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.997</v>
+      </c>
+      <c r="V16">
+        <v>0.998</v>
+      </c>
+      <c r="W16">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>246</v>
       </c>
       <c r="H17">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S17" s="2">
+        <f>AVERAGE(S11:S16)</f>
+        <v>0.30483333333333335</v>
+      </c>
+      <c r="T17" s="2">
+        <f>AVERAGE(T11:T16)</f>
+        <v>0.49366666666666664</v>
+      </c>
+      <c r="U17" s="2">
+        <f>AVERAGE(U11:U16)</f>
+        <v>1.1631666666666667</v>
+      </c>
+      <c r="V17" s="2">
+        <f>AVERAGE(V11:V16)</f>
+        <v>0.99283333333333335</v>
+      </c>
+      <c r="W17" s="2">
+        <f>AVERAGE(W11:W16)</f>
+        <v>0.99883333333333324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>100000</v>
       </c>
@@ -1008,7 +3867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +3889,23 @@
       <c r="O19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1065,8 +3939,23 @@
       <c r="O20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>2.992</v>
+      </c>
+      <c r="U20">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="V20">
+        <v>7.0270000000000001</v>
+      </c>
+      <c r="W20">
+        <v>6.9569999999999999</v>
+      </c>
+      <c r="X20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1097,8 +3986,23 @@
       <c r="O21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="U21">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="V21">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="W21">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="X21">
+        <v>4.9820000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1129,8 +4033,23 @@
       <c r="O22">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="U22">
+        <v>3.952</v>
+      </c>
+      <c r="V22">
+        <v>6.9809999999999999</v>
+      </c>
+      <c r="W22">
+        <v>5.984</v>
+      </c>
+      <c r="X22">
+        <v>5.9850000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1161,8 +4080,23 @@
       <c r="O23">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="U23">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="V23">
+        <v>6.9390000000000001</v>
+      </c>
+      <c r="W23">
+        <v>5.9820000000000002</v>
+      </c>
+      <c r="X23">
+        <v>4.9960000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -1193,8 +4127,23 @@
       <c r="O24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="U24">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="V24">
+        <v>6.9809999999999999</v>
+      </c>
+      <c r="W24">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="X24">
+        <v>5.9809999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>3</v>
       </c>
@@ -1216,8 +4165,23 @@
       <c r="O25">
         <v>985</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="U25">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="V25">
+        <v>6.9809999999999999</v>
+      </c>
+      <c r="W25">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="X25">
+        <v>5.9850000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
         <v>21</v>
       </c>
@@ -1239,8 +4203,28 @@
       <c r="O26">
         <v>489</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T26" s="2">
+        <f>AVERAGE(T20:T25)</f>
+        <v>3.1693333333333329</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" ref="U26:X26" si="0">AVERAGE(U20:U25)</f>
+        <v>3.8308333333333331</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9740000000000002</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5715000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +4247,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
         <v>3</v>
       </c>
@@ -1285,8 +4269,23 @@
       <c r="O28">
         <v>5626</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
         <v>21</v>
       </c>
@@ -1308,8 +4307,23 @@
       <c r="O29">
         <v>2827</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <v>11.016</v>
+      </c>
+      <c r="V29">
+        <v>11.935</v>
+      </c>
+      <c r="W29">
+        <v>22.942</v>
+      </c>
+      <c r="X29">
+        <v>21.007000000000001</v>
+      </c>
+      <c r="Y29">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
@@ -1331,8 +4345,40 @@
       <c r="O30">
         <v>1413</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <v>11.968</v>
+      </c>
+      <c r="V30">
+        <v>14.539</v>
+      </c>
+      <c r="W30">
+        <v>22.946999999999999</v>
+      </c>
+      <c r="X30">
+        <v>19.928000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>17.952000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <v>10.97</v>
+      </c>
+      <c r="V31">
+        <v>12.015000000000001</v>
+      </c>
+      <c r="W31">
+        <v>23.08</v>
+      </c>
+      <c r="X31">
+        <v>19.911000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>19.945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
         <v>26</v>
       </c>
@@ -1351,8 +4397,23 @@
       <c r="O32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <v>10.971</v>
+      </c>
+      <c r="V32">
+        <v>11.964</v>
+      </c>
+      <c r="W32">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="X32">
+        <v>19.949000000000002</v>
+      </c>
+      <c r="Y32">
+        <v>19.948</v>
+      </c>
+    </row>
+    <row r="33" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J33" t="s">
         <v>3</v>
       </c>
@@ -1371,8 +4432,23 @@
       <c r="O33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <v>10.965999999999999</v>
+      </c>
+      <c r="V33">
+        <v>9.9320000000000004</v>
+      </c>
+      <c r="W33">
+        <v>21.901</v>
+      </c>
+      <c r="X33">
+        <v>19.175999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="34" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
         <v>21</v>
       </c>
@@ -1391,8 +4467,23 @@
       <c r="O34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <v>11.968</v>
+      </c>
+      <c r="V34">
+        <v>11.968</v>
+      </c>
+      <c r="W34">
+        <v>21.937999999999999</v>
+      </c>
+      <c r="X34">
+        <v>19.939</v>
+      </c>
+      <c r="Y34">
+        <v>18.968</v>
+      </c>
+    </row>
+    <row r="35" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J35" t="s">
         <v>22</v>
       </c>
@@ -1411,8 +4502,28 @@
       <c r="O35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="U35" s="2">
+        <f>AVERAGE(U29:U34)</f>
+        <v>11.309833333333332</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" ref="V35:Y35" si="1">AVERAGE(V29:V34)</f>
+        <v>12.058833333333334</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="1"/>
+        <v>22.286166666666663</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="1"/>
+        <v>19.984999999999999</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" si="1"/>
+        <v>19.107166666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J36" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +4543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J37" t="s">
         <v>21</v>
       </c>
@@ -1451,8 +4562,23 @@
       <c r="O37">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J38" t="s">
         <v>22</v>
       </c>
@@ -1470,10 +4596,427 @@
       </c>
       <c r="O38">
         <v>26</v>
+      </c>
+      <c r="V38">
+        <v>25.963000000000001</v>
+      </c>
+      <c r="W38">
+        <v>21.942</v>
+      </c>
+      <c r="X38">
+        <v>35.93</v>
+      </c>
+      <c r="Y38">
+        <v>40.863999999999997</v>
+      </c>
+      <c r="Z38">
+        <v>38.911000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>22.986999999999998</v>
+      </c>
+      <c r="W39">
+        <v>24.931999999999999</v>
+      </c>
+      <c r="X39">
+        <v>42.859000000000002</v>
+      </c>
+      <c r="Y39">
+        <v>43.39</v>
+      </c>
+      <c r="Z39">
+        <v>37.883000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="V40">
+        <v>23.939</v>
+      </c>
+      <c r="W40">
+        <v>25.890999999999998</v>
+      </c>
+      <c r="X40">
+        <v>45.878</v>
+      </c>
+      <c r="Y40">
+        <v>39.875999999999998</v>
+      </c>
+      <c r="Z40">
+        <v>38.874000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <v>28.907</v>
+      </c>
+      <c r="W41">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="X41">
+        <v>30.452999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>43.883000000000003</v>
+      </c>
+      <c r="Z41">
+        <v>44.854999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="V42">
+        <v>21.939</v>
+      </c>
+      <c r="W42">
+        <v>24.933</v>
+      </c>
+      <c r="X42">
+        <v>34.905000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>39.869</v>
+      </c>
+      <c r="Z42">
+        <v>39.881999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="V43">
+        <v>37.920999999999999</v>
+      </c>
+      <c r="W43">
+        <v>37.899000000000001</v>
+      </c>
+      <c r="X43">
+        <v>31.902000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>42.874000000000002</v>
+      </c>
+      <c r="Z43">
+        <v>46.847999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="V44" s="2">
+        <f>AVERAGE(V38:V43)</f>
+        <v>26.942666666666668</v>
+      </c>
+      <c r="W44" s="2">
+        <f t="shared" ref="W44:Z44" si="2">AVERAGE(W38:W43)</f>
+        <v>26.763166666666663</v>
+      </c>
+      <c r="X44" s="2">
+        <f t="shared" si="2"/>
+        <v>36.987833333333334</v>
+      </c>
+      <c r="Y44" s="2">
+        <f t="shared" si="2"/>
+        <v>41.792666666666669</v>
+      </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="2"/>
+        <v>41.208833333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>3</v>
+      </c>
+      <c r="AA46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="W47">
+        <v>139.197</v>
+      </c>
+      <c r="X47">
+        <v>119.708</v>
+      </c>
+      <c r="Y47">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="Z47">
+        <v>188.49799999999999</v>
+      </c>
+      <c r="AA47">
+        <v>183.46799999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="10:27" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <v>143.15899999999999</v>
+      </c>
+      <c r="X48">
+        <v>109.706</v>
+      </c>
+      <c r="Y48">
+        <v>223.99199999999999</v>
+      </c>
+      <c r="Z48">
+        <v>189.99799999999999</v>
+      </c>
+      <c r="AA48">
+        <v>184.50700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W49">
+        <v>145.11600000000001</v>
+      </c>
+      <c r="X49">
+        <v>109.666</v>
+      </c>
+      <c r="Y49">
+        <v>221.40799999999999</v>
+      </c>
+      <c r="Z49">
+        <v>194.47800000000001</v>
+      </c>
+      <c r="AA49">
+        <v>194.56899999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W50">
+        <v>131.15700000000001</v>
+      </c>
+      <c r="X50">
+        <v>111.75</v>
+      </c>
+      <c r="Y50">
+        <v>218.417</v>
+      </c>
+      <c r="Z50">
+        <v>196.47499999999999</v>
+      </c>
+      <c r="AA50">
+        <v>194.042</v>
+      </c>
+    </row>
+    <row r="51" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <v>110.712</v>
+      </c>
+      <c r="X51">
+        <v>112.646</v>
+      </c>
+      <c r="Y51">
+        <v>216.374</v>
+      </c>
+      <c r="Z51">
+        <v>195.49299999999999</v>
+      </c>
+      <c r="AA51">
+        <v>194.48</v>
+      </c>
+    </row>
+    <row r="52" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W52">
+        <v>110.65300000000001</v>
+      </c>
+      <c r="X52">
+        <v>111.702</v>
+      </c>
+      <c r="Y52">
+        <v>213.46</v>
+      </c>
+      <c r="Z52">
+        <v>191.488</v>
+      </c>
+      <c r="AA52">
+        <v>187.46700000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W53" s="2">
+        <f>AVERAGE(W47:W52)</f>
+        <v>129.999</v>
+      </c>
+      <c r="X53" s="2">
+        <f t="shared" ref="X53:AA53" si="3">AVERAGE(X47:X52)</f>
+        <v>112.52966666666667</v>
+      </c>
+      <c r="Y53" s="2">
+        <f t="shared" si="3"/>
+        <v>219.67433333333335</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="3"/>
+        <v>192.73833333333334</v>
+      </c>
+      <c r="AA53" s="2">
+        <f t="shared" si="3"/>
+        <v>189.75550000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>3</v>
+      </c>
+      <c r="AB55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X56">
+        <v>204.465</v>
+      </c>
+      <c r="Y56">
+        <v>224.374</v>
+      </c>
+      <c r="Z56">
+        <v>237.328</v>
+      </c>
+      <c r="AA56">
+        <v>391.95299999999997</v>
+      </c>
+      <c r="AB56">
+        <v>388.96100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <v>205.446</v>
+      </c>
+      <c r="Y57">
+        <v>202.48599999999999</v>
+      </c>
+      <c r="Z57">
+        <v>207.44499999999999</v>
+      </c>
+      <c r="AA57">
+        <v>388.96</v>
+      </c>
+      <c r="AB57">
+        <v>368.01499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X58">
+        <v>202.47</v>
+      </c>
+      <c r="Y58">
+        <v>202.46899999999999</v>
+      </c>
+      <c r="Z58">
+        <v>204.44</v>
+      </c>
+      <c r="AA58">
+        <v>393.95</v>
+      </c>
+      <c r="AB58">
+        <v>371.97899999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X59">
+        <v>204.48699999999999</v>
+      </c>
+      <c r="Y59">
+        <v>197.46600000000001</v>
+      </c>
+      <c r="Z59">
+        <v>205.464</v>
+      </c>
+      <c r="AA59">
+        <v>386.92899999999997</v>
+      </c>
+      <c r="AB59">
+        <v>369.012</v>
+      </c>
+    </row>
+    <row r="60" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X60">
+        <v>203.46299999999999</v>
+      </c>
+      <c r="Y60">
+        <v>204.44200000000001</v>
+      </c>
+      <c r="Z60">
+        <v>203.45099999999999</v>
+      </c>
+      <c r="AA60">
+        <v>390.24799999999999</v>
+      </c>
+      <c r="AB60">
+        <v>384.95800000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X61">
+        <v>232.34399999999999</v>
+      </c>
+      <c r="Y61">
+        <v>198.458</v>
+      </c>
+      <c r="Z61">
+        <v>203.48500000000001</v>
+      </c>
+      <c r="AA61">
+        <v>385.41399999999999</v>
+      </c>
+      <c r="AB61">
+        <v>386.93900000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="X62" s="2">
+        <f>AVERAGE(X56:X61)</f>
+        <v>208.77916666666667</v>
+      </c>
+      <c r="Y62" s="2">
+        <f t="shared" ref="Y62:AB62" si="4">AVERAGE(Y56:Y61)</f>
+        <v>204.94916666666668</v>
+      </c>
+      <c r="Z62" s="2">
+        <f t="shared" si="4"/>
+        <v>210.2688333333333</v>
+      </c>
+      <c r="AA62" s="2">
+        <f t="shared" si="4"/>
+        <v>389.57566666666662</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="4"/>
+        <v>378.31066666666669</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1B4141-CD1A-49C9-B1F9-B336D017372E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>